--- a/Ciclo1/PlaneacionGPP.xlsx
+++ b/Ciclo1/PlaneacionGPP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="135">
   <si>
     <t>Task</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Dar soporte en  la instalacion de ruby on rails y mysql.</t>
+  </si>
+  <si>
+    <t>Nyllyreth</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -711,11 +714,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -780,31 +798,161 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -813,136 +961,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,21 +1260,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -1261,11 +1283,11 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
@@ -1289,12 +1311,12 @@
       <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="27">
         <v>1701010638</v>
       </c>
@@ -1306,12 +1328,12 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="27">
         <v>1701023541</v>
       </c>
@@ -1323,12 +1345,12 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="27">
         <v>1701320174</v>
       </c>
@@ -1340,12 +1362,12 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="27">
         <v>1701313539</v>
       </c>
@@ -1382,19 +1404,19 @@
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -1410,36 +1432,36 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
@@ -1455,13 +1477,13 @@
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
@@ -1507,578 +1529,578 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="45" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="46"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="49" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="64" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73">
+      <c r="A27" s="46">
         <v>1</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="69">
         <v>42436</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76">
+      <c r="C27" s="68"/>
+      <c r="D27" s="47">
         <v>16</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="47">
         <v>16</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="48">
         <f>+(D27/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="76"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73">
+      <c r="A28" s="46">
         <v>2</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="69">
         <v>42443</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76">
+      <c r="C28" s="68"/>
+      <c r="D28" s="47">
         <v>16</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="35">
         <f>+E27+D28</f>
         <v>32</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="48">
         <f>+(D28/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="57"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73">
+      <c r="A29" s="46">
         <v>3</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B29" s="69">
         <v>42457</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76">
+      <c r="C29" s="68"/>
+      <c r="D29" s="47">
         <v>16</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="35">
         <f t="shared" ref="E29:E34" si="0">+E28+D29</f>
         <v>48</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="48">
         <f>+(D29/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="57"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73">
+      <c r="A30" s="46">
         <v>4</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="69">
         <v>42464</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76">
+      <c r="C30" s="68"/>
+      <c r="D30" s="47">
         <v>16</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="35">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="48">
         <f>+(D30/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="57"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73">
+      <c r="A31" s="46">
         <v>5</v>
       </c>
-      <c r="B31" s="74">
+      <c r="B31" s="69">
         <v>42471</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76">
+      <c r="C31" s="68"/>
+      <c r="D31" s="47">
         <v>16</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="35">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="48">
         <f>+(D31/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="57"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73">
+      <c r="A32" s="46">
         <v>6</v>
       </c>
-      <c r="B32" s="74">
+      <c r="B32" s="69">
         <v>42478</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76">
+      <c r="C32" s="68"/>
+      <c r="D32" s="47">
         <v>16</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="35">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="48">
         <f>+(D32/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="57"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="73">
+      <c r="A33" s="46">
         <v>7</v>
       </c>
-      <c r="B33" s="74">
+      <c r="B33" s="69">
         <v>42485</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="57">
+      <c r="C33" s="68"/>
+      <c r="D33" s="35">
         <v>16</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="35">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="F33" s="77">
+      <c r="F33" s="48">
         <f>+(D33/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="57"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73">
+      <c r="A34" s="46">
         <v>8</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="69">
         <v>42492</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="57">
+      <c r="C34" s="68"/>
+      <c r="D34" s="35">
         <v>16</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="35">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="48">
         <f>+(D34/E34)*100</f>
         <v>12.5</v>
       </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="57"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="27"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="77">
+      <c r="A35" s="46"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="48">
         <f>SUM(F27:F34)</f>
         <v>100</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="57"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="27"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="57"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="57"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="57"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="73"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="57"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="57"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="73"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="57"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="35"/>
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="57"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="73"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="57"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="73"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="57"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="73"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="57"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="73"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="57"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="27"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="57"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="27"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="73"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="57"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="27"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="57"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="27"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="73"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="73"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="57"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="35"/>
       <c r="K51" s="27"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="73"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="57"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="35"/>
       <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="73"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="57"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="35"/>
       <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="73"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="57"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="35"/>
       <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2096,49 +2118,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B1:F3"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
@@ -2151,6 +2130,49 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2160,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,16 +2193,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
@@ -2192,13 +2214,13 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -2209,22 +2231,22 @@
       <c r="N5" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
@@ -2259,925 +2281,931 @@
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="45" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="27"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
       <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="57"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="57"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="57"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="57"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="35"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="57"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="57"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="35"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27" s="35"/>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:14" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="1:14" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="1:14" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="1:14" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="1:14" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
       <c r="N33" s="27"/>
     </row>
     <row r="34" spans="1:14" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="27"/>
     </row>
     <row r="35" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="27"/>
     </row>
     <row r="36" spans="1:14" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="27"/>
     </row>
     <row r="37" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
       <c r="N37" s="27"/>
     </row>
     <row r="38" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="27"/>
     </row>
     <row r="39" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
       <c r="N39" s="27"/>
     </row>
     <row r="40" spans="1:14" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
       <c r="N40" s="27"/>
     </row>
     <row r="41" spans="1:14" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
       <c r="N42" s="27"/>
     </row>
     <row r="43" spans="1:14" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
       <c r="N43" s="27"/>
     </row>
     <row r="44" spans="1:14" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
       <c r="N44" s="27"/>
     </row>
     <row r="45" spans="1:14" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
       <c r="N45" s="27"/>
     </row>
     <row r="46" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="27"/>
     </row>
     <row r="47" spans="1:14" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
       <c r="N47" s="27"/>
     </row>
     <row r="48" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
       <c r="N48" s="27"/>
     </row>
     <row r="49" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
       <c r="N49" s="27"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="56">
+      <c r="A50" s="38"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="34">
         <f>SUM(C18:C49)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57">
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35">
         <f>SUM(F18:F49)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57">
+      <c r="G50" s="35"/>
+      <c r="H50" s="35">
         <f>SUM(H18:H49)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
       <c r="N50" s="27"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="27"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
       <c r="N52" s="27"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
       <c r="N53" s="27"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
       <c r="N54" s="27"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="60"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
       <c r="N55" s="27"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="56"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
-      <c r="F56" s="57"/>
+      <c r="F56" s="35"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="57"/>
+      <c r="H56" s="35"/>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
@@ -3186,19 +3214,19 @@
       <c r="N56" s="27"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
       <c r="N57" s="27"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -3235,23 +3263,23 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="H11:H16"/>
     <mergeCell ref="I11:I16"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="M11:M16"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
     <mergeCell ref="F11:F16"/>
-    <mergeCell ref="A7:N7"/>
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="K11:K16"/>
     <mergeCell ref="L11:L16"/>
@@ -3280,181 +3308,181 @@
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="37" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="80" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
     </row>
     <row r="16" spans="1:15" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -5090,11 +5118,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:N9"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="I10:I15"/>
@@ -5110,6 +5133,11 @@
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="J10:J15"/>
     <mergeCell ref="N10:N15"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ciclo1/PlaneacionGPP.xlsx
+++ b/Ciclo1/PlaneacionGPP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ciclos" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="105">
   <si>
     <t>Task</t>
   </si>
@@ -306,14 +306,50 @@
     <t>Final Date</t>
   </si>
   <si>
-    <t>03/10/</t>
+    <t>Tatiana, Gian, Jorge</t>
+  </si>
+  <si>
+    <t>Nyllyreth, Tatiana</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Gian, Jorge</t>
+  </si>
+  <si>
+    <t>Nyllyreth, Tatiana, Gian</t>
+  </si>
+  <si>
+    <t>Tatiana, Jorge</t>
+  </si>
+  <si>
+    <t>Nyllyreth Gian</t>
+  </si>
+  <si>
+    <t>Nyllyreth, Gian, Jorge</t>
+  </si>
+  <si>
+    <t>Tatiana, Nyllyreth</t>
+  </si>
+  <si>
+    <t>Jorge, gian</t>
+  </si>
+  <si>
+    <t>Nyllyreth, Jorge</t>
+  </si>
+  <si>
+    <t>Tatiana, Gian</t>
+  </si>
+  <si>
+    <t>Nyllyreth, Gian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -571,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -603,192 +632,177 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,25 +1095,25 @@
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1108,11 +1122,11 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -1136,12 +1150,12 @@
       <c r="A5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="24">
         <v>1701010638</v>
       </c>
@@ -1153,12 +1167,12 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="24">
         <v>1701023541</v>
       </c>
@@ -1170,12 +1184,12 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="24">
         <v>1701320174</v>
       </c>
@@ -1187,12 +1201,12 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="24">
         <v>1701313539</v>
       </c>
@@ -1229,19 +1243,19 @@
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
@@ -1257,38 +1271,38 @@
       <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -1304,13 +1318,13 @@
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -1357,138 +1371,138 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="53" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="53" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="63" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>1</v>
       </c>
-      <c r="B27" s="83">
+      <c r="B27" s="51">
         <v>42611</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="49">
         <v>42617</v>
       </c>
       <c r="D27" s="43">
         <v>12</v>
       </c>
       <c r="E27" s="43">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27" s="44">
-        <f>+(D27/E34)*100</f>
-        <v>12</v>
+        <f>+(D27/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="43"/>
@@ -1500,10 +1514,10 @@
       <c r="A28" s="42">
         <v>2</v>
       </c>
-      <c r="B28" s="83">
+      <c r="B28" s="51">
         <v>42618</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="49">
         <v>42624</v>
       </c>
       <c r="D28" s="43">
@@ -1511,11 +1525,11 @@
       </c>
       <c r="E28" s="31">
         <f>+E27+D28</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F28" s="44">
-        <f>+(D28/E34)*100</f>
-        <v>12</v>
+        <f>+(D28/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="31"/>
@@ -1527,22 +1541,22 @@
       <c r="A29" s="42">
         <v>3</v>
       </c>
-      <c r="B29" s="83">
+      <c r="B29" s="51">
         <v>42625</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="49">
         <v>42631</v>
       </c>
       <c r="D29" s="43">
         <v>12</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" ref="E29:E34" si="0">+E28+D29</f>
-        <v>40</v>
+        <f t="shared" ref="E29:E41" si="0">+E28+D29</f>
+        <v>36</v>
       </c>
       <c r="F29" s="44">
-        <f>+(D29/E34)*100</f>
-        <v>12</v>
+        <f>+(D29/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="31"/>
@@ -1554,10 +1568,10 @@
       <c r="A30" s="42">
         <v>4</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="51">
         <v>42632</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="49">
         <v>42638</v>
       </c>
       <c r="D30" s="43">
@@ -1565,11 +1579,11 @@
       </c>
       <c r="E30" s="31">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F30" s="44">
-        <f>+(D30/E34)*100</f>
-        <v>12</v>
+        <f>+(D30/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="31"/>
@@ -1581,10 +1595,10 @@
       <c r="A31" s="42">
         <v>5</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="51">
         <v>42639</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="49">
         <v>42645</v>
       </c>
       <c r="D31" s="43">
@@ -1592,11 +1606,11 @@
       </c>
       <c r="E31" s="31">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F31" s="44">
-        <f>+(D31/E34)*100</f>
-        <v>12</v>
+        <f>+(D31/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="31"/>
@@ -1608,20 +1622,22 @@
       <c r="A32" s="42">
         <v>6</v>
       </c>
-      <c r="B32" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="80"/>
+      <c r="B32" s="51">
+        <v>42646</v>
+      </c>
+      <c r="C32" s="49">
+        <v>42652</v>
+      </c>
       <c r="D32" s="43">
         <v>12</v>
       </c>
       <c r="E32" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F32" s="44">
-        <f>+(D32/E34)*100</f>
-        <v>12</v>
+        <f>+(D32/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="31"/>
@@ -1633,18 +1649,22 @@
       <c r="A33" s="42">
         <v>7</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="51">
+        <v>42653</v>
+      </c>
+      <c r="C33" s="49">
+        <v>42659</v>
+      </c>
       <c r="D33" s="31">
         <v>12</v>
       </c>
       <c r="E33" s="31">
         <f>+E32+D33</f>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F33" s="44">
-        <f>+(D33/E34)*100</f>
-        <v>12</v>
+        <f>+(D33/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="31"/>
@@ -1656,18 +1676,22 @@
       <c r="A34" s="42">
         <v>8</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="51">
+        <v>42660</v>
+      </c>
+      <c r="C34" s="49">
+        <v>42666</v>
+      </c>
       <c r="D34" s="31">
         <v>12</v>
       </c>
       <c r="E34" s="31">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F34" s="44">
-        <f>+(D34/E34)*100</f>
-        <v>12</v>
+        <f>+(D34/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="31"/>
@@ -1676,14 +1700,25 @@
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="42">
+        <v>9</v>
+      </c>
+      <c r="B35" s="51">
+        <v>42667</v>
+      </c>
+      <c r="C35" s="49">
+        <v>42673</v>
+      </c>
+      <c r="D35" s="31">
+        <v>12</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
       <c r="F35" s="44">
-        <f>SUM(F27:F34)</f>
-        <v>96</v>
+        <f>+(D35/E41)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="31"/>
@@ -1692,12 +1727,26 @@
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="A36" s="42">
+        <v>10</v>
+      </c>
+      <c r="B36" s="51">
+        <v>42674</v>
+      </c>
+      <c r="C36" s="49">
+        <v>42680</v>
+      </c>
+      <c r="D36" s="31">
+        <v>12</v>
+      </c>
+      <c r="E36" s="31">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F36" s="44">
+        <f>+(D36/E41)*100</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="G36" s="29"/>
       <c r="H36" s="31"/>
       <c r="I36" s="29"/>
@@ -1705,12 +1754,26 @@
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="42">
+        <v>11</v>
+      </c>
+      <c r="B37" s="51">
+        <v>42681</v>
+      </c>
+      <c r="C37" s="49">
+        <v>42687</v>
+      </c>
+      <c r="D37" s="31">
+        <v>12</v>
+      </c>
+      <c r="E37" s="31">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F37" s="44">
+        <f>+(D37/E41)*100</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="G37" s="29"/>
       <c r="H37" s="31"/>
       <c r="I37" s="29"/>
@@ -1718,12 +1781,26 @@
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="A38" s="42">
+        <v>12</v>
+      </c>
+      <c r="B38" s="51">
+        <v>42688</v>
+      </c>
+      <c r="C38" s="49">
+        <v>42694</v>
+      </c>
+      <c r="D38" s="31">
+        <v>12</v>
+      </c>
+      <c r="E38" s="31">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F38" s="44">
+        <f>+(D38/E41)*100</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="G38" s="29"/>
       <c r="H38" s="31"/>
       <c r="I38" s="29"/>
@@ -1731,12 +1808,26 @@
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="A39" s="42">
+        <v>13</v>
+      </c>
+      <c r="B39" s="51">
+        <v>42695</v>
+      </c>
+      <c r="C39" s="49">
+        <v>42701</v>
+      </c>
+      <c r="D39" s="31">
+        <v>12</v>
+      </c>
+      <c r="E39" s="31">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="F39" s="44">
+        <f>+(D39/E41)*100</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="G39" s="29"/>
       <c r="H39" s="31"/>
       <c r="I39" s="29"/>
@@ -1744,12 +1835,26 @@
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
+      <c r="A40" s="42">
+        <v>14</v>
+      </c>
+      <c r="B40" s="51">
+        <v>42702</v>
+      </c>
+      <c r="C40" s="49">
+        <v>42708</v>
+      </c>
+      <c r="D40" s="31">
+        <v>12</v>
+      </c>
+      <c r="E40" s="31">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F40" s="44">
+        <f>+(D40/E41)*100</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="G40" s="29"/>
       <c r="H40" s="31"/>
       <c r="I40" s="29"/>
@@ -1757,12 +1862,26 @@
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="42">
+        <v>15</v>
+      </c>
+      <c r="B41" s="51">
+        <v>42709</v>
+      </c>
+      <c r="C41" s="49">
+        <v>42715</v>
+      </c>
+      <c r="D41" s="31">
+        <v>12</v>
+      </c>
+      <c r="E41" s="31">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F41" s="44">
+        <f>+(D41/E41)*100</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="G41" s="29"/>
       <c r="H41" s="31"/>
       <c r="I41" s="29"/>
@@ -1772,10 +1891,13 @@
     <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42"/>
       <c r="B42" s="29"/>
-      <c r="C42" s="80"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="F42" s="31">
+        <f>SUM(F27:F41)</f>
+        <v>100.00000000000001</v>
+      </c>
       <c r="G42" s="29"/>
       <c r="H42" s="31"/>
       <c r="I42" s="29"/>
@@ -1785,7 +1907,7 @@
     <row r="43" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="42"/>
       <c r="B43" s="29"/>
-      <c r="C43" s="80"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -1798,7 +1920,7 @@
     <row r="44" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
       <c r="B44" s="29"/>
-      <c r="C44" s="80"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
@@ -1811,7 +1933,7 @@
     <row r="45" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="42"/>
       <c r="B45" s="29"/>
-      <c r="C45" s="80"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
@@ -1824,7 +1946,7 @@
     <row r="46" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="42"/>
       <c r="B46" s="29"/>
-      <c r="C46" s="80"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
@@ -1836,8 +1958,8 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="80"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
@@ -1849,8 +1971,8 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="42"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="80"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
@@ -1862,8 +1984,8 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="80"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -1875,8 +1997,8 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="42"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="80"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
@@ -1888,8 +2010,8 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="42"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="80"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
@@ -1901,8 +2023,8 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="42"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="80"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
@@ -1914,8 +2036,8 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="42"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="80"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
@@ -1927,8 +2049,8 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="42"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="80"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
@@ -1940,7 +2062,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
-      <c r="B55" s="79"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
@@ -1953,14 +2075,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B1:F3"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="D21:D26"/>
@@ -1970,18 +2090,20 @@
     <mergeCell ref="H21:H26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="C21:C26"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1991,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,13 +2127,13 @@
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -2023,13 +2145,13 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -2040,22 +2162,22 @@
       <c r="N5" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -2090,149 +2212,149 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="53" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="53" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="63" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2242,9 +2364,7 @@
       <c r="B17" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="30">
-        <v>2</v>
-      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -2253,7 +2373,9 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="45"/>
-      <c r="L17" s="78"/>
+      <c r="L17" s="78" t="s">
+        <v>102</v>
+      </c>
       <c r="M17" s="31"/>
       <c r="N17" s="24"/>
     </row>
@@ -2273,7 +2395,9 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="L18" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="M18" s="31"/>
       <c r="N18" s="24"/>
     </row>
@@ -2337,7 +2461,9 @@
       <c r="I21" s="31"/>
       <c r="J21" s="35"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
+      <c r="L21" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="M21" s="31"/>
       <c r="N21" s="24"/>
     </row>
@@ -2358,7 +2484,7 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="32" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M22" s="31"/>
       <c r="N22" s="24"/>
@@ -2380,7 +2506,7 @@
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="L23" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M23" s="31"/>
       <c r="N23" s="24"/>
@@ -2401,7 +2527,9 @@
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="L24" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="M24" s="31"/>
       <c r="N24" s="24"/>
     </row>
@@ -2421,7 +2549,9 @@
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="L25" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="M25" s="31"/>
       <c r="N25" s="24"/>
     </row>
@@ -2441,7 +2571,9 @@
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="L26" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="M26" s="31"/>
       <c r="N26" s="24"/>
     </row>
@@ -2461,7 +2593,9 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="L27" s="31" t="s">
+        <v>96</v>
+      </c>
       <c r="M27" s="31"/>
       <c r="N27" s="24"/>
     </row>
@@ -2481,7 +2615,9 @@
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="L28" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="M28" s="31"/>
       <c r="N28" s="24"/>
     </row>
@@ -2501,7 +2637,9 @@
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="L29" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="M29" s="31"/>
       <c r="N29" s="24"/>
     </row>
@@ -2521,7 +2659,9 @@
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="L30" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="M30" s="31"/>
       <c r="N30" s="24"/>
     </row>
@@ -2541,7 +2681,9 @@
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="L31" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="M31" s="31"/>
       <c r="N31" s="24"/>
     </row>
@@ -2561,7 +2703,9 @@
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="L32" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="M32" s="31"/>
       <c r="N32" s="24"/>
     </row>
@@ -2581,7 +2725,9 @@
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="L33" s="31" t="s">
+        <v>99</v>
+      </c>
       <c r="M33" s="31"/>
       <c r="N33" s="24"/>
     </row>
@@ -2601,7 +2747,9 @@
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="L34" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="M34" s="31"/>
       <c r="N34" s="24"/>
     </row>
@@ -2621,7 +2769,9 @@
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+      <c r="L35" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="M35" s="31"/>
       <c r="N35" s="24"/>
     </row>
@@ -2641,7 +2791,9 @@
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="M36" s="31"/>
       <c r="N36" s="24"/>
     </row>
@@ -2816,6 +2968,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="H11:H16"/>
     <mergeCell ref="I11:I16"/>
@@ -2825,17 +2988,6 @@
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="K11:K16"/>
     <mergeCell ref="L11:L16"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2844,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:P38"/>
+  <dimension ref="A4:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:N31"/>
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,181 +3014,181 @@
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="75" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="75" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="75" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="75"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
     </row>
     <row r="16" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
@@ -3045,389 +3197,415 @@
       <c r="B16" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="31"/>
       <c r="O16" s="27"/>
     </row>
-    <row r="17" spans="1:16" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="31"/>
       <c r="O17" s="27"/>
     </row>
-    <row r="18" spans="1:16" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="27"/>
     </row>
-    <row r="19" spans="1:16" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="27"/>
     </row>
-    <row r="20" spans="1:16" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="27"/>
     </row>
-    <row r="21" spans="1:16" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="27"/>
     </row>
-    <row r="22" spans="1:16" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="27"/>
     </row>
-    <row r="23" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="27"/>
     </row>
-    <row r="24" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="31"/>
       <c r="O24" s="27"/>
     </row>
-    <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="31"/>
       <c r="O25" s="27"/>
     </row>
-    <row r="26" spans="1:16" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="31"/>
       <c r="O26" s="27"/>
     </row>
-    <row r="27" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="P28">
-        <f>SUM(K27:K31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
@@ -3446,60 +3624,39 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:N9"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="I10:I15"/>
@@ -3515,6 +3672,11 @@
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="J10:J15"/>
     <mergeCell ref="N10:N15"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4459,143 +4621,143 @@
   <sheetData>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="53" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
@@ -4613,7 +4775,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="78"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5275,13 +5437,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="H5:H10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="J5:J10"/>
-    <mergeCell ref="K5:K10"/>
-    <mergeCell ref="L5:L10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -5292,6 +5447,13 @@
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="F5:F10"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="H5:H10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="K5:K10"/>
+    <mergeCell ref="L5:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
